--- a/public/files/seguimiento-creditos.xlsx
+++ b/public/files/seguimiento-creditos.xlsx
@@ -3,13 +3,177 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet sheetId="1" name="Hoja1" state="visible" r:id="rId4"/>
+  </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+  <si>
+    <t>AGENTE</t>
+  </si>
+  <si>
+    <t>NOMBRE CLIENTE</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>TIPO PERSONA</t>
+  </si>
+  <si>
+    <t>COD CLIENTE</t>
+  </si>
+  <si>
+    <t>EMPRESA CLIENTE</t>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>FECHA CONCESION</t>
+  </si>
+  <si>
+    <t>PERIODO</t>
+  </si>
+  <si>
+    <t>TIPO PRODUCTO</t>
+  </si>
+  <si>
+    <t>SITUACION</t>
+  </si>
+  <si>
+    <t>OMEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN ANDRÉS MITOGO </t>
+  </si>
+  <si>
+    <t>HOMBRE</t>
+  </si>
+  <si>
+    <t>FISICA</t>
+  </si>
+  <si>
+    <t>65675</t>
+  </si>
+  <si>
+    <t>GEOMS</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>12/03/2024</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>CREDITO</t>
+  </si>
+  <si>
+    <t>SANO</t>
+  </si>
+  <si>
+    <t>LISANDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA TERESA BACALE </t>
+  </si>
+  <si>
+    <t>MUJER</t>
+  </si>
+  <si>
+    <t>1005050</t>
+  </si>
+  <si>
+    <t>MUNI</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>28/03/2024</t>
+  </si>
+  <si>
+    <t>ANGELES</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>HMUJER</t>
+  </si>
+  <si>
+    <t>123131</t>
+  </si>
+  <si>
+    <t>GETESA</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>10/03/2024</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>CREDITO NOMINA</t>
+  </si>
+  <si>
+    <t>SUSANA</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE HACIENDA</t>
+  </si>
+  <si>
+    <t>800000</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>22/02/2024</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>ADRIAN OBAMA</t>
+  </si>
+  <si>
+    <t>1222333</t>
+  </si>
+  <si>
+    <t>GITGE</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -17,16 +181,40 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <family val="2"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -34,12 +222,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -57,15 +275,27 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="Table1" displayName="Table1" ref="G2:G9" totalsRowShown="1" headerRowCount="0">
+  <autoFilter ref="G2:G9">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="1">
+    <tableColumn id="1" name="500000" totalsRowLabel="Total"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -103,71 +333,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -191,50 +421,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -244,7 +477,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -253,7 +486,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -262,7 +495,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -270,10 +503,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -302,7 +535,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -315,13 +548,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -333,46 +565,393 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.862142857142858" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.14785714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.290714285714287" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.005" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.14785714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.71928571428572" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.290714285714284" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.005" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.005" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.005" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <f>SUM(G2:G11)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>